--- a/state_results/Rivers/OngarueatTaringamotu_a384421aec.xlsx
+++ b/state_results/Rivers/OngarueatTaringamotu_a384421aec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U206"/>
+  <dimension ref="A1:U226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.85</v>
       </c>
       <c r="G2" t="n">
-        <v>1.12648262310929</v>
+        <v>1.12632786945706</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
@@ -651,7 +651,7 @@
         <v>0.013</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0133740478491081</v>
+        <v>0.013376041002941</v>
       </c>
       <c r="H3" t="n">
         <v>0.023</v>
@@ -732,7 +732,7 @@
         <v>0.013</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0133740478491081</v>
+        <v>0.013376041002941</v>
       </c>
       <c r="H4" t="n">
         <v>0.023</v>
@@ -813,7 +813,7 @@
         <v>249</v>
       </c>
       <c r="G5" t="n">
-        <v>1296.72950841424</v>
+        <v>1296.72972702492</v>
       </c>
       <c r="H5" t="n">
         <v>31800</v>
@@ -898,7 +898,7 @@
         <v>249</v>
       </c>
       <c r="G6" t="n">
-        <v>1296.72950841424</v>
+        <v>1296.72972702492</v>
       </c>
       <c r="H6" t="n">
         <v>31800</v>
@@ -983,7 +983,7 @@
         <v>249</v>
       </c>
       <c r="G7" t="n">
-        <v>1296.72950841424</v>
+        <v>1296.72972702492</v>
       </c>
       <c r="H7" t="n">
         <v>31800</v>
@@ -1068,7 +1068,7 @@
         <v>249</v>
       </c>
       <c r="G8" t="n">
-        <v>1296.72950841424</v>
+        <v>1296.72972702492</v>
       </c>
       <c r="H8" t="n">
         <v>31800</v>
@@ -1153,7 +1153,7 @@
         <v>0.00477</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005896094285119</v>
+        <v>0.0058992916703195</v>
       </c>
       <c r="H9" t="n">
         <v>0.0388215303737134</v>
@@ -1234,7 +1234,7 @@
         <v>0.00477</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005896094285119</v>
+        <v>0.0058992916703195</v>
       </c>
       <c r="H10" t="n">
         <v>0.0388215303737134</v>
@@ -1473,7 +1473,7 @@
         <v>0.2975</v>
       </c>
       <c r="G13" t="n">
-        <v>0.353810344827586</v>
+        <v>0.353796551724138</v>
       </c>
       <c r="H13" t="n">
         <v>0.829</v>
@@ -1487,7 +1487,7 @@
         <v>0.203</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5294</v>
+        <v>0.52908</v>
       </c>
       <c r="N13" t="n">
         <v>0.66792</v>
@@ -1550,7 +1550,7 @@
         <v>0.2975</v>
       </c>
       <c r="G14" t="n">
-        <v>0.353810344827586</v>
+        <v>0.353796551724138</v>
       </c>
       <c r="H14" t="n">
         <v>0.829</v>
@@ -1564,7 +1564,7 @@
         <v>0.203</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5294</v>
+        <v>0.52908</v>
       </c>
       <c r="N14" t="n">
         <v>0.66792</v>
@@ -2020,7 +2020,7 @@
         <v>0.013</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0131879138359166</v>
+        <v>0.0131918075434069</v>
       </c>
       <c r="H20" t="n">
         <v>0.023</v>
@@ -2101,7 +2101,7 @@
         <v>0.013</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0131879138359166</v>
+        <v>0.0131918075434069</v>
       </c>
       <c r="H21" t="n">
         <v>0.023</v>
@@ -2182,7 +2182,7 @@
         <v>245.5</v>
       </c>
       <c r="G22" t="n">
-        <v>861.436404965963</v>
+        <v>861.436623576641</v>
       </c>
       <c r="H22" t="n">
         <v>12997</v>
@@ -2267,7 +2267,7 @@
         <v>245.5</v>
       </c>
       <c r="G23" t="n">
-        <v>861.436404965963</v>
+        <v>861.436623576641</v>
       </c>
       <c r="H23" t="n">
         <v>12997</v>
@@ -2352,7 +2352,7 @@
         <v>245.5</v>
       </c>
       <c r="G24" t="n">
-        <v>861.436404965963</v>
+        <v>861.436623576641</v>
       </c>
       <c r="H24" t="n">
         <v>12997</v>
@@ -2437,7 +2437,7 @@
         <v>245.5</v>
       </c>
       <c r="G25" t="n">
-        <v>861.436404965963</v>
+        <v>861.436623576641</v>
       </c>
       <c r="H25" t="n">
         <v>12997</v>
@@ -2522,7 +2522,7 @@
         <v>0.00492</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0061672993578357</v>
+        <v>0.0061678959323792</v>
       </c>
       <c r="H26" t="n">
         <v>0.0388215303737134</v>
@@ -2603,7 +2603,7 @@
         <v>0.00492</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0061672993578357</v>
+        <v>0.0061678959323792</v>
       </c>
       <c r="H27" t="n">
         <v>0.0388215303737134</v>
@@ -2842,10 +2842,10 @@
         <v>0.2855</v>
       </c>
       <c r="G30" t="n">
-        <v>0.358224137931034</v>
+        <v>0.3582</v>
       </c>
       <c r="H30" t="n">
-        <v>0.992</v>
+        <v>0.9919</v>
       </c>
       <c r="I30" t="n">
         <v>0.7532</v>
@@ -2919,10 +2919,10 @@
         <v>0.2855</v>
       </c>
       <c r="G31" t="n">
-        <v>0.358224137931034</v>
+        <v>0.3582</v>
       </c>
       <c r="H31" t="n">
-        <v>0.992</v>
+        <v>0.9919</v>
       </c>
       <c r="I31" t="n">
         <v>0.7532</v>
@@ -3308,13 +3308,13 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>1.12850704243004</v>
+        <v>1.13752965088056</v>
       </c>
       <c r="H36" t="n">
         <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>2.68442</v>
+        <v>2.74339</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3389,7 +3389,7 @@
         <v>0.0135</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0144345556419809</v>
+        <v>0.0144364561956383</v>
       </c>
       <c r="H37" t="n">
         <v>0.033</v>
@@ -3470,7 +3470,7 @@
         <v>0.0135</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0144345556419809</v>
+        <v>0.0144364561956383</v>
       </c>
       <c r="H38" t="n">
         <v>0.033</v>
@@ -3551,7 +3551,7 @@
         <v>195</v>
       </c>
       <c r="G39" t="n">
-        <v>877.850198069411</v>
+        <v>877.850416680089</v>
       </c>
       <c r="H39" t="n">
         <v>12997</v>
@@ -3636,7 +3636,7 @@
         <v>195</v>
       </c>
       <c r="G40" t="n">
-        <v>877.850198069411</v>
+        <v>877.850416680089</v>
       </c>
       <c r="H40" t="n">
         <v>12997</v>
@@ -3721,7 +3721,7 @@
         <v>195</v>
       </c>
       <c r="G41" t="n">
-        <v>877.850198069411</v>
+        <v>877.850416680089</v>
       </c>
       <c r="H41" t="n">
         <v>12997</v>
@@ -3806,7 +3806,7 @@
         <v>195</v>
       </c>
       <c r="G42" t="n">
-        <v>877.850198069411</v>
+        <v>877.850416680089</v>
       </c>
       <c r="H42" t="n">
         <v>12997</v>
@@ -3891,7 +3891,7 @@
         <v>0.00476</v>
       </c>
       <c r="G43" t="n">
-        <v>0.005548795094365</v>
+        <v>0.0055500634147792</v>
       </c>
       <c r="H43" t="n">
         <v>0.0388215303737134</v>
@@ -3972,7 +3972,7 @@
         <v>0.00476</v>
       </c>
       <c r="G44" t="n">
-        <v>0.005548795094365</v>
+        <v>0.0055500634147792</v>
       </c>
       <c r="H44" t="n">
         <v>0.0388215303737134</v>
@@ -4211,10 +4211,10 @@
         <v>0.2715</v>
       </c>
       <c r="G47" t="n">
-        <v>0.339379310344828</v>
+        <v>0.339358620689655</v>
       </c>
       <c r="H47" t="n">
-        <v>0.992</v>
+        <v>0.9919</v>
       </c>
       <c r="I47" t="n">
         <v>0.7136</v>
@@ -4288,10 +4288,10 @@
         <v>0.2715</v>
       </c>
       <c r="G48" t="n">
-        <v>0.339379310344828</v>
+        <v>0.339358620689655</v>
       </c>
       <c r="H48" t="n">
-        <v>0.992</v>
+        <v>0.9919</v>
       </c>
       <c r="I48" t="n">
         <v>0.7136</v>
@@ -4677,13 +4677,13 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>1.25267370909671</v>
+        <v>1.26169631754723</v>
       </c>
       <c r="H53" t="n">
         <v>4.5</v>
       </c>
       <c r="I53" t="n">
-        <v>2.78</v>
+        <v>3.17055</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
         <v>2.168</v>
       </c>
       <c r="N53" t="n">
-        <v>2.65458</v>
+        <v>2.666</v>
       </c>
       <c r="O53" t="n">
         <v>1794198</v>
@@ -4758,7 +4758,7 @@
         <v>0.013</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0143828315040499</v>
+        <v>0.0143847320577073</v>
       </c>
       <c r="H54" t="n">
         <v>0.033</v>
@@ -4839,7 +4839,7 @@
         <v>0.013</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0143828315040499</v>
+        <v>0.0143847320577073</v>
       </c>
       <c r="H55" t="n">
         <v>0.033</v>
@@ -4920,7 +4920,7 @@
         <v>156</v>
       </c>
       <c r="G56" t="n">
-        <v>540.812482246067</v>
+        <v>540.812704692021</v>
       </c>
       <c r="H56" t="n">
         <v>4185</v>
@@ -5005,7 +5005,7 @@
         <v>156</v>
       </c>
       <c r="G57" t="n">
-        <v>540.812482246067</v>
+        <v>540.812704692021</v>
       </c>
       <c r="H57" t="n">
         <v>4185</v>
@@ -5090,7 +5090,7 @@
         <v>156</v>
       </c>
       <c r="G58" t="n">
-        <v>540.812482246067</v>
+        <v>540.812704692021</v>
       </c>
       <c r="H58" t="n">
         <v>4185</v>
@@ -5175,7 +5175,7 @@
         <v>156</v>
       </c>
       <c r="G59" t="n">
-        <v>540.812482246067</v>
+        <v>540.812704692021</v>
       </c>
       <c r="H59" t="n">
         <v>4185</v>
@@ -5260,7 +5260,7 @@
         <v>0.00224</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0050034204812069</v>
+        <v>0.0050098701414463</v>
       </c>
       <c r="H60" t="n">
         <v>0.0388215303737134</v>
@@ -5341,7 +5341,7 @@
         <v>0.00224</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0050034204812069</v>
+        <v>0.0050098701414463</v>
       </c>
       <c r="H61" t="n">
         <v>0.0388215303737134</v>
@@ -5577,13 +5577,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.274</v>
+        <v>0.27395</v>
       </c>
       <c r="G64" t="n">
-        <v>0.332879310344828</v>
+        <v>0.332886206896552</v>
       </c>
       <c r="H64" t="n">
-        <v>0.992</v>
+        <v>0.9919</v>
       </c>
       <c r="I64" t="n">
         <v>0.7136</v>
@@ -5591,13 +5591,13 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.122</v>
+        <v>0.1223</v>
       </c>
       <c r="M64" t="n">
-        <v>0.5514</v>
+        <v>0.55126</v>
       </c>
       <c r="N64" t="n">
-        <v>0.63608</v>
+        <v>0.63642</v>
       </c>
       <c r="O64" t="n">
         <v>1794198</v>
@@ -5654,13 +5654,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.274</v>
+        <v>0.27395</v>
       </c>
       <c r="G65" t="n">
-        <v>0.332879310344828</v>
+        <v>0.332886206896552</v>
       </c>
       <c r="H65" t="n">
-        <v>0.992</v>
+        <v>0.9919</v>
       </c>
       <c r="I65" t="n">
         <v>0.7136</v>
@@ -5668,13 +5668,13 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.122</v>
+        <v>0.1223</v>
       </c>
       <c r="M65" t="n">
-        <v>0.5514</v>
+        <v>0.55126</v>
       </c>
       <c r="N65" t="n">
-        <v>0.63608</v>
+        <v>0.63642</v>
       </c>
       <c r="O65" t="n">
         <v>1794198</v>
@@ -6046,13 +6046,13 @@
         <v>0.95</v>
       </c>
       <c r="G70" t="n">
-        <v>1.10476240054264</v>
+        <v>1.11378068340183</v>
       </c>
       <c r="H70" t="n">
         <v>4.5</v>
       </c>
       <c r="I70" t="n">
-        <v>2.45654</v>
+        <v>2.54679</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -6063,7 +6063,7 @@
         <v>1.768</v>
       </c>
       <c r="N70" t="n">
-        <v>2.35383</v>
+        <v>2.33893</v>
       </c>
       <c r="O70" t="n">
         <v>1794198</v>
@@ -6127,7 +6127,7 @@
         <v>0.0145</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0147104177109464</v>
+        <v>0.0147123182646039</v>
       </c>
       <c r="H71" t="n">
         <v>0.033</v>
@@ -6208,7 +6208,7 @@
         <v>0.0145</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0147104177109464</v>
+        <v>0.0147123182646039</v>
       </c>
       <c r="H72" t="n">
         <v>0.033</v>
@@ -6289,7 +6289,7 @@
         <v>156</v>
       </c>
       <c r="G73" t="n">
-        <v>897.2861664565939</v>
+        <v>897.2863889025469</v>
       </c>
       <c r="H73" t="n">
         <v>16000</v>
@@ -6374,7 +6374,7 @@
         <v>156</v>
       </c>
       <c r="G74" t="n">
-        <v>897.2861664565939</v>
+        <v>897.2863889025469</v>
       </c>
       <c r="H74" t="n">
         <v>16000</v>
@@ -6459,7 +6459,7 @@
         <v>156</v>
       </c>
       <c r="G75" t="n">
-        <v>897.2861664565939</v>
+        <v>897.2863889025469</v>
       </c>
       <c r="H75" t="n">
         <v>16000</v>
@@ -6544,7 +6544,7 @@
         <v>156</v>
       </c>
       <c r="G76" t="n">
-        <v>897.2861664565939</v>
+        <v>897.2863889025469</v>
       </c>
       <c r="H76" t="n">
         <v>16000</v>
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.00115</v>
+        <v>0.00121</v>
       </c>
       <c r="G77" t="n">
-        <v>0.004431912118442</v>
+        <v>0.0044473278770586</v>
       </c>
       <c r="H77" t="n">
         <v>0.0388215303737134</v>
@@ -6707,10 +6707,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.00115</v>
+        <v>0.00121</v>
       </c>
       <c r="G78" t="n">
-        <v>0.004431912118442</v>
+        <v>0.0044473278770586</v>
       </c>
       <c r="H78" t="n">
         <v>0.0388215303737134</v>
@@ -6946,13 +6946,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.283</v>
+        <v>0.28295</v>
       </c>
       <c r="G81" t="n">
-        <v>0.342172413793103</v>
+        <v>0.342179310344828</v>
       </c>
       <c r="H81" t="n">
-        <v>0.992</v>
+        <v>0.9919</v>
       </c>
       <c r="I81" t="n">
         <v>0.769</v>
@@ -6960,13 +6960,13 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.119</v>
+        <v>0.1194</v>
       </c>
       <c r="M81" t="n">
         <v>0.55948</v>
       </c>
       <c r="N81" t="n">
-        <v>0.72772</v>
+        <v>0.72778</v>
       </c>
       <c r="O81" t="n">
         <v>1794198</v>
@@ -7023,13 +7023,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.283</v>
+        <v>0.28295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.342172413793103</v>
+        <v>0.342179310344828</v>
       </c>
       <c r="H82" t="n">
-        <v>0.992</v>
+        <v>0.9919</v>
       </c>
       <c r="I82" t="n">
         <v>0.769</v>
@@ -7037,13 +7037,13 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.119</v>
+        <v>0.1194</v>
       </c>
       <c r="M82" t="n">
         <v>0.55948</v>
       </c>
       <c r="N82" t="n">
-        <v>0.72772</v>
+        <v>0.72778</v>
       </c>
       <c r="O82" t="n">
         <v>1794198</v>
@@ -7492,13 +7492,13 @@
         <v>0.9</v>
       </c>
       <c r="G88" t="n">
-        <v>1.05185563385336</v>
+        <v>1.06049815492676</v>
       </c>
       <c r="H88" t="n">
         <v>4.5</v>
       </c>
       <c r="I88" t="n">
-        <v>2.42827</v>
+        <v>2.47339</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -7509,7 +7509,7 @@
         <v>1.5306</v>
       </c>
       <c r="N88" t="n">
-        <v>2.34333</v>
+        <v>2.33134</v>
       </c>
       <c r="O88" t="n">
         <v>1794198</v>
@@ -7573,7 +7573,7 @@
         <v>0.016</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0159865123260151</v>
+        <v>0.0159883806668987</v>
       </c>
       <c r="H89" t="n">
         <v>0.033</v>
@@ -7654,7 +7654,7 @@
         <v>0.016</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0159865123260151</v>
+        <v>0.0159883806668987</v>
       </c>
       <c r="H90" t="n">
         <v>0.033</v>
@@ -8149,10 +8149,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.00123</v>
+        <v>0.00126</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0029810850621865</v>
+        <v>0.0030083964737927</v>
       </c>
       <c r="H96" t="n">
         <v>0.0213981611344565</v>
@@ -8163,7 +8163,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.00135</v>
+        <v>0.00138</v>
       </c>
       <c r="M96" t="n">
         <v>0.00458</v>
@@ -8230,10 +8230,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.00123</v>
+        <v>0.00126</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0029810850621865</v>
+        <v>0.0030083964737927</v>
       </c>
       <c r="H97" t="n">
         <v>0.0213981611344565</v>
@@ -8244,7 +8244,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.00135</v>
+        <v>0.00138</v>
       </c>
       <c r="M97" t="n">
         <v>0.00458</v>
@@ -8546,13 +8546,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.294</v>
+        <v>0.2943</v>
       </c>
       <c r="G101" t="n">
-        <v>0.352813559322034</v>
+        <v>0.352820338983051</v>
       </c>
       <c r="H101" t="n">
-        <v>0.992</v>
+        <v>0.9919</v>
       </c>
       <c r="I101" t="n">
         <v>0.76015</v>
@@ -8560,13 +8560,13 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>0.117</v>
+        <v>0.1172</v>
       </c>
       <c r="M101" t="n">
         <v>0.60423</v>
       </c>
       <c r="N101" t="n">
-        <v>0.6868</v>
+        <v>0.68689</v>
       </c>
       <c r="O101" t="n">
         <v>1794198</v>
@@ -8623,13 +8623,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.294</v>
+        <v>0.2943</v>
       </c>
       <c r="G102" t="n">
-        <v>0.352813559322034</v>
+        <v>0.352820338983051</v>
       </c>
       <c r="H102" t="n">
-        <v>0.992</v>
+        <v>0.9919</v>
       </c>
       <c r="I102" t="n">
         <v>0.76015</v>
@@ -8637,13 +8637,13 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.117</v>
+        <v>0.1172</v>
       </c>
       <c r="M102" t="n">
         <v>0.60423</v>
       </c>
       <c r="N102" t="n">
-        <v>0.6868</v>
+        <v>0.68689</v>
       </c>
       <c r="O102" t="n">
         <v>1794198</v>
@@ -9092,13 +9092,13 @@
         <v>0.8</v>
       </c>
       <c r="G108" t="n">
-        <v>0.931603812911559</v>
+        <v>0.939708175227148</v>
       </c>
       <c r="H108" t="n">
         <v>4.5</v>
       </c>
       <c r="I108" t="n">
-        <v>2.36565</v>
+        <v>2.34748</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -9749,10 +9749,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.0018</v>
+        <v>0.00185</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0035273959310824</v>
+        <v>0.0035594328453308</v>
       </c>
       <c r="H116" t="n">
         <v>0.0213981611344565</v>
@@ -9763,7 +9763,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.00196</v>
+        <v>0.00203</v>
       </c>
       <c r="M116" t="n">
         <v>0.0057</v>
@@ -9830,10 +9830,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.0018</v>
+        <v>0.00185</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0035273959310824</v>
+        <v>0.0035594328453308</v>
       </c>
       <c r="H117" t="n">
         <v>0.0213981611344565</v>
@@ -9844,7 +9844,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>0.00196</v>
+        <v>0.00203</v>
       </c>
       <c r="M117" t="n">
         <v>0.0057</v>
@@ -10149,7 +10149,7 @@
         <v>0.365</v>
       </c>
       <c r="G121" t="n">
-        <v>0.371983050847458</v>
+        <v>0.37198813559322</v>
       </c>
       <c r="H121" t="n">
         <v>0.78</v>
@@ -10160,7 +10160,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>0.1285</v>
+        <v>0.12865</v>
       </c>
       <c r="M121" t="n">
         <v>0.63</v>
@@ -10226,7 +10226,7 @@
         <v>0.365</v>
       </c>
       <c r="G122" t="n">
-        <v>0.371983050847458</v>
+        <v>0.37198813559322</v>
       </c>
       <c r="H122" t="n">
         <v>0.78</v>
@@ -10237,7 +10237,7 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
-        <v>0.1285</v>
+        <v>0.12865</v>
       </c>
       <c r="M122" t="n">
         <v>0.63</v>
@@ -10692,7 +10692,7 @@
         <v>0.8</v>
       </c>
       <c r="G128" t="n">
-        <v>0.886264274101796</v>
+        <v>0.8855796926926131</v>
       </c>
       <c r="H128" t="n">
         <v>4.5</v>
@@ -11349,10 +11349,10 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.00245</v>
+        <v>0.00255</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0045419592887033</v>
+        <v>0.0045779478164837</v>
       </c>
       <c r="H136" t="n">
         <v>0.0213981611344565</v>
@@ -11363,7 +11363,7 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>0.00205</v>
+        <v>0.00213</v>
       </c>
       <c r="M136" t="n">
         <v>0.01066</v>
@@ -11430,10 +11430,10 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.00245</v>
+        <v>0.00255</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0045419592887033</v>
+        <v>0.0045779478164837</v>
       </c>
       <c r="H137" t="n">
         <v>0.0213981611344565</v>
@@ -11444,7 +11444,7 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>0.00205</v>
+        <v>0.00213</v>
       </c>
       <c r="M137" t="n">
         <v>0.01066</v>
@@ -11749,7 +11749,7 @@
         <v>0.365</v>
       </c>
       <c r="G141" t="n">
-        <v>0.389237288135593</v>
+        <v>0.38925593220339</v>
       </c>
       <c r="H141" t="n">
         <v>0.78</v>
@@ -11826,7 +11826,7 @@
         <v>0.365</v>
       </c>
       <c r="G142" t="n">
-        <v>0.389237288135593</v>
+        <v>0.38925593220339</v>
       </c>
       <c r="H142" t="n">
         <v>0.78</v>
@@ -12292,7 +12292,7 @@
         <v>0.8</v>
       </c>
       <c r="G148" t="n">
-        <v>0.773996246087753</v>
+        <v>0.773162533786857</v>
       </c>
       <c r="H148" t="n">
         <v>1.8</v>
@@ -12949,10 +12949,10 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.0033</v>
+        <v>0.00338</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0058572462524427</v>
+        <v>0.0058918685404666</v>
       </c>
       <c r="H156" t="n">
         <v>0.0369255087927304</v>
@@ -13030,10 +13030,10 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.0033</v>
+        <v>0.00338</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0058572462524427</v>
+        <v>0.0058918685404666</v>
       </c>
       <c r="H157" t="n">
         <v>0.0369255087927304</v>
@@ -13349,7 +13349,7 @@
         <v>0.375</v>
       </c>
       <c r="G161" t="n">
-        <v>0.397220338983051</v>
+        <v>0.39721186440678</v>
       </c>
       <c r="H161" t="n">
         <v>0.78</v>
@@ -13426,7 +13426,7 @@
         <v>0.375</v>
       </c>
       <c r="G162" t="n">
-        <v>0.397220338983051</v>
+        <v>0.39721186440678</v>
       </c>
       <c r="H162" t="n">
         <v>0.78</v>
@@ -13892,7 +13892,7 @@
         <v>0.8</v>
       </c>
       <c r="G168" t="n">
-        <v>0.884259545494526</v>
+        <v>0.883754762614369</v>
       </c>
       <c r="H168" t="n">
         <v>2.5</v>
@@ -14135,7 +14135,7 @@
         <v>150</v>
       </c>
       <c r="G171" t="n">
-        <v>373.155076491686</v>
+        <v>373.154787264875</v>
       </c>
       <c r="H171" t="n">
         <v>4500</v>
@@ -14220,7 +14220,7 @@
         <v>150</v>
       </c>
       <c r="G172" t="n">
-        <v>373.155076491686</v>
+        <v>373.154787264875</v>
       </c>
       <c r="H172" t="n">
         <v>4500</v>
@@ -14305,7 +14305,7 @@
         <v>150</v>
       </c>
       <c r="G173" t="n">
-        <v>373.155076491686</v>
+        <v>373.154787264875</v>
       </c>
       <c r="H173" t="n">
         <v>4500</v>
@@ -14390,7 +14390,7 @@
         <v>150</v>
       </c>
       <c r="G174" t="n">
-        <v>373.155076491686</v>
+        <v>373.154787264875</v>
       </c>
       <c r="H174" t="n">
         <v>4500</v>
@@ -14549,10 +14549,10 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0.00375</v>
+        <v>0.0038</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0058485316399154</v>
+        <v>0.0058719454289474</v>
       </c>
       <c r="H176" t="n">
         <v>0.0369255087927304</v>
@@ -14630,10 +14630,10 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0.00375</v>
+        <v>0.0038</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0058485316399154</v>
+        <v>0.0058719454289474</v>
       </c>
       <c r="H177" t="n">
         <v>0.0369255087927304</v>
@@ -14949,7 +14949,7 @@
         <v>0.333</v>
       </c>
       <c r="G181" t="n">
-        <v>0.378915254237288</v>
+        <v>0.378932203389831</v>
       </c>
       <c r="H181" t="n">
         <v>0.724</v>
@@ -15026,7 +15026,7 @@
         <v>0.333</v>
       </c>
       <c r="G182" t="n">
-        <v>0.378915254237288</v>
+        <v>0.378932203389831</v>
       </c>
       <c r="H182" t="n">
         <v>0.724</v>
@@ -15492,7 +15492,7 @@
         <v>0.9</v>
       </c>
       <c r="G188" t="n">
-        <v>0.928766936474193</v>
+        <v>0.928040918608136</v>
       </c>
       <c r="H188" t="n">
         <v>3</v>
@@ -15735,7 +15735,7 @@
         <v>170</v>
       </c>
       <c r="G191" t="n">
-        <v>542.932447596657</v>
+        <v>542.932148221537</v>
       </c>
       <c r="H191" t="n">
         <v>9700</v>
@@ -15820,7 +15820,7 @@
         <v>170</v>
       </c>
       <c r="G192" t="n">
-        <v>542.932447596657</v>
+        <v>542.932148221537</v>
       </c>
       <c r="H192" t="n">
         <v>9700</v>
@@ -15905,7 +15905,7 @@
         <v>170</v>
       </c>
       <c r="G193" t="n">
-        <v>542.932447596657</v>
+        <v>542.932148221537</v>
       </c>
       <c r="H193" t="n">
         <v>9700</v>
@@ -15990,7 +15990,7 @@
         <v>170</v>
       </c>
       <c r="G194" t="n">
-        <v>542.932447596657</v>
+        <v>542.932148221537</v>
       </c>
       <c r="H194" t="n">
         <v>9700</v>
@@ -16152,7 +16152,7 @@
         <v>0.0048</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0107427023872137</v>
+        <v>0.0107538836317455</v>
       </c>
       <c r="H196" t="n">
         <v>0.193986973066777</v>
@@ -16233,7 +16233,7 @@
         <v>0.0048</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0107427023872137</v>
+        <v>0.0107538836317455</v>
       </c>
       <c r="H197" t="n">
         <v>0.193986973066777</v>
@@ -16549,7 +16549,7 @@
         <v>0.333</v>
       </c>
       <c r="G201" t="n">
-        <v>0.45340350877193</v>
+        <v>0.453421052631579</v>
       </c>
       <c r="H201" t="n">
         <v>4.943</v>
@@ -16626,7 +16626,7 @@
         <v>0.333</v>
       </c>
       <c r="G202" t="n">
-        <v>0.45340350877193</v>
+        <v>0.453421052631579</v>
       </c>
       <c r="H202" t="n">
         <v>4.943</v>
@@ -16985,6 +16985,1606 @@
         </is>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.4036</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>0.3595</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.50075</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="O207" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P207" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.917832533003724</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3</v>
+      </c>
+      <c r="I208" t="n">
+        <v>2.215</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1.317</v>
+      </c>
+      <c r="N208" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P208" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.0197543859649123</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.03425</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.02481</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.02994</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P209" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.0197543859649123</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.03425</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.02481</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.02994</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P210" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>188</v>
+      </c>
+      <c r="G211" t="n">
+        <v>595.739165765397</v>
+      </c>
+      <c r="H211" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I211" t="n">
+        <v>2743.2</v>
+      </c>
+      <c r="J211" t="n">
+        <v>19.2982456140351</v>
+      </c>
+      <c r="K211" t="n">
+        <v>35.0877192982456</v>
+      </c>
+      <c r="L211" t="n">
+        <v>110</v>
+      </c>
+      <c r="M211" t="n">
+        <v>754.4</v>
+      </c>
+      <c r="N211" t="n">
+        <v>1360.74</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>188</v>
+      </c>
+      <c r="G212" t="n">
+        <v>595.739165765397</v>
+      </c>
+      <c r="H212" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I212" t="n">
+        <v>2743.2</v>
+      </c>
+      <c r="J212" t="n">
+        <v>19.2982456140351</v>
+      </c>
+      <c r="K212" t="n">
+        <v>35.0877192982456</v>
+      </c>
+      <c r="L212" t="n">
+        <v>110</v>
+      </c>
+      <c r="M212" t="n">
+        <v>754.4</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1360.74</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P212" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>188</v>
+      </c>
+      <c r="G213" t="n">
+        <v>595.739165765397</v>
+      </c>
+      <c r="H213" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I213" t="n">
+        <v>2743.2</v>
+      </c>
+      <c r="J213" t="n">
+        <v>19.2982456140351</v>
+      </c>
+      <c r="K213" t="n">
+        <v>35.0877192982456</v>
+      </c>
+      <c r="L213" t="n">
+        <v>110</v>
+      </c>
+      <c r="M213" t="n">
+        <v>754.4</v>
+      </c>
+      <c r="N213" t="n">
+        <v>1360.74</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>188</v>
+      </c>
+      <c r="G214" t="n">
+        <v>595.739165765397</v>
+      </c>
+      <c r="H214" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I214" t="n">
+        <v>2743.2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>19.2982456140351</v>
+      </c>
+      <c r="K214" t="n">
+        <v>35.0877192982456</v>
+      </c>
+      <c r="L214" t="n">
+        <v>110</v>
+      </c>
+      <c r="M214" t="n">
+        <v>754.4</v>
+      </c>
+      <c r="N214" t="n">
+        <v>1360.74</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>110</v>
+      </c>
+      <c r="G215" t="n">
+        <v>109.62</v>
+      </c>
+      <c r="H215" t="n">
+        <v>112</v>
+      </c>
+      <c r="I215" t="n">
+        <v>112</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>110.65</v>
+      </c>
+      <c r="M215" t="n">
+        <v>111.755</v>
+      </c>
+      <c r="N215" t="n">
+        <v>112</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.00475</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.0104671783951369</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.193986973066777</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.02396</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.00979</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.01279</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0.00475</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.0104671783951369</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.193986973066777</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.02396</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>0.00979</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.01279</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.436701754385965</v>
+      </c>
+      <c r="H218" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.7676500000000001</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0.59543</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.66394</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.436701754385965</v>
+      </c>
+      <c r="H219" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.7676500000000001</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.59543</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.66394</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G220" t="n">
+        <v>5.227</v>
+      </c>
+      <c r="H220" t="n">
+        <v>5.999</v>
+      </c>
+      <c r="I220" t="n">
+        <v>5.999</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>4.983</v>
+      </c>
+      <c r="M220" t="n">
+        <v>5.94685</v>
+      </c>
+      <c r="N220" t="n">
+        <v>5.999</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.461166666666667</v>
+      </c>
+      <c r="H221" t="n">
+        <v>4.943</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.7812</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.60829</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.68376</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.461166666666667</v>
+      </c>
+      <c r="H222" t="n">
+        <v>4.943</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.7812</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.60829</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.68376</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.548245614035088</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.7962</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.9464</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.548245614035088</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.7962</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.9464</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.0512631578947368</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.11165</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.07653</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.10394</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Ongarue at Taringamotu</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.0512631578947368</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.11165</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.07653</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.10394</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1794198</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5696131</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Whai_2g</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OngarueatTaringamotu_a384421aec.xlsx
+++ b/state_results/Rivers/OngarueatTaringamotu_a384421aec.xlsx
@@ -3308,13 +3308,13 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>1.13752965088056</v>
+        <v>1.2041631020907</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>5.15559175511517</v>
       </c>
       <c r="I36" t="n">
-        <v>2.74339</v>
+        <v>3.50242</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3325,7 +3325,7 @@
         <v>2.1</v>
       </c>
       <c r="N36" t="n">
-        <v>2.532</v>
+        <v>2.666</v>
       </c>
       <c r="O36" t="n">
         <v>1794198</v>
@@ -4677,13 +4677,13 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>1.26169631754723</v>
+        <v>1.32832976875737</v>
       </c>
       <c r="H53" t="n">
-        <v>4.5</v>
+        <v>5.15559175511517</v>
       </c>
       <c r="I53" t="n">
-        <v>3.17055</v>
+        <v>3.62181</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
         <v>2.168</v>
       </c>
       <c r="N53" t="n">
-        <v>2.666</v>
+        <v>3.228</v>
       </c>
       <c r="O53" t="n">
         <v>1794198</v>
@@ -6046,13 +6046,13 @@
         <v>0.95</v>
       </c>
       <c r="G70" t="n">
-        <v>1.11378068340183</v>
+        <v>1.18331124118633</v>
       </c>
       <c r="H70" t="n">
-        <v>4.5</v>
+        <v>5.15559175511517</v>
       </c>
       <c r="I70" t="n">
-        <v>2.54679</v>
+        <v>3.71939</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -6063,7 +6063,7 @@
         <v>1.768</v>
       </c>
       <c r="N70" t="n">
-        <v>2.33893</v>
+        <v>2.382</v>
       </c>
       <c r="O70" t="n">
         <v>1794198</v>
@@ -7492,13 +7492,13 @@
         <v>0.9</v>
       </c>
       <c r="G88" t="n">
-        <v>1.06049815492676</v>
+        <v>1.1271316061369</v>
       </c>
       <c r="H88" t="n">
-        <v>4.5</v>
+        <v>5.15559175511517</v>
       </c>
       <c r="I88" t="n">
-        <v>2.47339</v>
+        <v>3.62181</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -7509,7 +7509,7 @@
         <v>1.5306</v>
       </c>
       <c r="N88" t="n">
-        <v>2.33134</v>
+        <v>2.366</v>
       </c>
       <c r="O88" t="n">
         <v>1794198</v>
@@ -9092,13 +9092,13 @@
         <v>0.8</v>
       </c>
       <c r="G108" t="n">
-        <v>0.939708175227148</v>
+        <v>1.00367628838889</v>
       </c>
       <c r="H108" t="n">
-        <v>4.5</v>
+        <v>5.15559175511517</v>
       </c>
       <c r="I108" t="n">
-        <v>2.34748</v>
+        <v>3.52424</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
